--- a/HardCoders/docs/teste/casos de teste.xlsx
+++ b/HardCoders/docs/teste/casos de teste.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12225" windowHeight="3525"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -42,9 +43,6 @@
     <t>Não deve permitir caracteres especiais e letras.</t>
   </si>
   <si>
-    <t>O sistema só deverá permitir o cadastro com o campo CPF existente.</t>
-  </si>
-  <si>
     <t>O campo CPF deve aparecer após o campo ‘nome’.</t>
   </si>
   <si>
@@ -265,6 +263,9 @@
   </si>
   <si>
     <t>Quando trocar a filtragem o campo deve ficar em branco</t>
+  </si>
+  <si>
+    <t>Validar CPF</t>
   </si>
 </sst>
 </file>
@@ -338,10 +339,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2351,6 +2352,46 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419694</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5560218" y="1381125"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2643,22 +2684,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="105.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2667,28 +2708,28 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
-        <v>80</v>
+      <c r="A2" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2708,12 +2749,12 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2728,453 +2769,453 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75" s="5"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:1">

--- a/HardCoders/docs/teste/casos de teste.xlsx
+++ b/HardCoders/docs/teste/casos de teste.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12225" windowHeight="3525"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12990" windowHeight="3705"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>Passou</t>
   </si>
@@ -266,13 +266,64 @@
   </si>
   <si>
     <t>Validar CPF</t>
+  </si>
+  <si>
+    <t>TELA</t>
+  </si>
+  <si>
+    <t>Campo CPF deve vim após do campo nome</t>
+  </si>
+  <si>
+    <t>O campo endereço está desalinhado</t>
+  </si>
+  <si>
+    <t>O campo nome está afastado</t>
+  </si>
+  <si>
+    <t>O campo número está afastado</t>
+  </si>
+  <si>
+    <t>O campo estado está desalinhado</t>
+  </si>
+  <si>
+    <t>A ideia de endereço está diferente do padrão</t>
+  </si>
+  <si>
+    <t>O campo email ta muito pequeno</t>
+  </si>
+  <si>
+    <t>Falta ação LIMPAR</t>
+  </si>
+  <si>
+    <t>CAMPO RUA</t>
+  </si>
+  <si>
+    <t>CAMPO NÚMERO</t>
+  </si>
+  <si>
+    <t>Só deverá permitir números</t>
+  </si>
+  <si>
+    <t>O campo complemento encontra-se em local indevido</t>
+  </si>
+  <si>
+    <t>Quando alterar o tipo de telefone o campo deve aparecer em branco</t>
+  </si>
+  <si>
+    <t>CAMPO RAZÃO SOCIAL</t>
+  </si>
+  <si>
+    <t>Só deverá permitir letras?</t>
+  </si>
+  <si>
+    <t>Os clientes cadastrados não encontram-se na listagem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +356,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -998,13 +1058,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>422076</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1038,13 +1098,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1118,13 +1178,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1198,13 +1258,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1278,13 +1338,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1358,13 +1418,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1438,13 +1498,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1518,13 +1578,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>422076</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1558,13 +1618,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>431601</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1598,13 +1658,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1678,13 +1738,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1758,13 +1818,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1838,13 +1898,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>422076</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1878,13 +1938,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1958,13 +2018,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>441126</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1998,13 +2058,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2078,13 +2138,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>422076</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2118,13 +2178,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2198,13 +2258,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2278,13 +2338,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2682,15 +2742,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="1" max="1" width="108.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2772,472 +2832,595 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="5" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:3"/>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="6" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:3"/>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="5" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:3"/>
+    <row r="85" spans="1:3">
+      <c r="A85" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="5" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="5" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="5" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:3"/>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="5" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="5" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="5" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="7" t="s">
+    <row r="96" spans="1:3"/>
+    <row r="97" spans="1:3">
+      <c r="A97" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="5" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:3"/>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="5"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="5"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="5"/>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="5"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="5"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="5"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="5"/>
+    <row r="113" spans="1:3">
+      <c r="A113" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/HardCoders/docs/teste/casos de teste.xlsx
+++ b/HardCoders/docs/teste/casos de teste.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12990" windowHeight="3705"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19470" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2744,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2756,10 +2756,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3365,7 +3365,7 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="9" t="s">
         <v>42</v>
       </c>
     </row>

--- a/HardCoders/docs/teste/casos de teste.xlsx
+++ b/HardCoders/docs/teste/casos de teste.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19470" windowHeight="5760"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12990" windowHeight="3705"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
   <si>
     <t>Passou</t>
   </si>
@@ -67,15 +67,9 @@
     <t xml:space="preserve"> Deve ter um limite de caracteres.</t>
   </si>
   <si>
-    <t>Só deverá permitir o cadastro com CEP existente</t>
-  </si>
-  <si>
     <t>CAMPO BAIRRO</t>
   </si>
   <si>
-    <t xml:space="preserve"> Deve permitir apenas letras.</t>
-  </si>
-  <si>
     <t>CAMPO TELEFONE</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t xml:space="preserve">Obs: </t>
   </si>
   <si>
-    <t>Os campos ‘nome’, ‘CPF’ e ‘CEP’ devem ser obrigatórios.</t>
-  </si>
-  <si>
     <t>Ao tentar cadastrar com todos os campos em brancos uma mensagem deve ser exibida. Ex: (“Preencha os campos”).</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>Não deverá permitir letras nem caracteres especiais</t>
   </si>
   <si>
-    <t>O ponto deverá ser preenchido automaticamente</t>
-  </si>
-  <si>
     <t>NOME DO SERVIÇO</t>
   </si>
   <si>
@@ -199,9 +187,6 @@
     <t>Ao tentar cadastrar com o campo em branco exibe uma mensagem "já existe" (alterar para outra mensagem)</t>
   </si>
   <si>
-    <t>A mensagem já existe deve ser alterada para "Serviço já existe"</t>
-  </si>
-  <si>
     <t>CADASTRO DE EMPRESAS</t>
   </si>
   <si>
@@ -244,9 +229,6 @@
     <t>Não deverá permitir selecionar mais de uma reclamação</t>
   </si>
   <si>
-    <t>A mensagem de Este login já existe para esta empresa deve ser alterada para "Login já existente"</t>
-  </si>
-  <si>
     <t>padronizar a listagem para "Fulano Cadastrados"</t>
   </si>
   <si>
@@ -310,13 +292,31 @@
     <t>Quando alterar o tipo de telefone o campo deve aparecer em branco</t>
   </si>
   <si>
-    <t>CAMPO RAZÃO SOCIAL</t>
-  </si>
-  <si>
-    <t>Só deverá permitir letras?</t>
-  </si>
-  <si>
     <t>Os clientes cadastrados não encontram-se na listagem</t>
+  </si>
+  <si>
+    <t>LISTAGEM DE CLIENTES</t>
+  </si>
+  <si>
+    <t>Mensagem de campo obrigatórios incorreta</t>
+  </si>
+  <si>
+    <t>Colocar automático os pontos, traço e barra no campo de CNPJ</t>
+  </si>
+  <si>
+    <t>Colocar automático os pontos e traço no campo de CPF</t>
+  </si>
+  <si>
+    <t>Permite cadastrar com CPF igual</t>
+  </si>
+  <si>
+    <t>Os campos ‘nome’,‘CPF’, 'login' e 'senha'  devem ser obrigatórios.</t>
+  </si>
+  <si>
+    <t>Mensagem de campo obrigatório incorreta</t>
+  </si>
+  <si>
+    <t>Não deverá permitir mais de um ponto no campo (ex: 1.000.00)</t>
   </si>
 </sst>
 </file>
@@ -774,27 +774,187 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431601</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7867650" y="4429125"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7858125" y="4800600"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7858125" y="4991100"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7858125" y="5372100"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Multiplicar 11"/>
+        <xdr:cNvPr id="21" name="Multiplicar 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7886701" y="2886075"/>
+          <a:off x="7877175" y="6305550"/>
           <a:ext cx="123824" cy="133349"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -854,27 +1014,307 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7858125" y="7286625"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7858125" y="8791575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419694</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5560218" y="1381125"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412551</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8058150" y="2695575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>412551</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8058150" y="2886075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="5562600"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="6134100"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Multiplicar 12"/>
+        <xdr:cNvPr id="50" name="Multiplicar 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7886700" y="4219575"/>
+          <a:off x="8105775" y="7839075"/>
           <a:ext cx="123824" cy="133349"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -937,153 +1377,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>431601</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7867650" y="4429125"/>
-          <a:ext cx="203001" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>422076</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7858125" y="4800600"/>
-          <a:ext cx="203001" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>422076</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7858125" y="4991100"/>
-          <a:ext cx="203001" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>422076</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7858125" y="5372100"/>
+        <xdr:cNvPr id="51" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="6324600"/>
           <a:ext cx="203001" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1098,23 +1418,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Multiplicar 17"/>
+        <xdr:cNvPr id="52" name="Multiplicar 51"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7877175" y="5553075"/>
+          <a:off x="8086725" y="6877050"/>
           <a:ext cx="123824" cy="133349"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1174,27 +1494,627 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="6515100"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="7277100"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="8048625"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="8239125"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="8620125"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="9553575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="10887075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="10887075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="11077575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="11458575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="11649075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="11839575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="12601575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="12792075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="13173075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Multiplicar 18"/>
+        <xdr:cNvPr id="68" name="Multiplicar 67"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7877175" y="5734050"/>
+          <a:off x="8086725" y="6686550"/>
           <a:ext cx="123824" cy="133349"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1254,27 +2174,147 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="13554075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="13935075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="14125575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Multiplicar 19"/>
+        <xdr:cNvPr id="72" name="Multiplicar 71"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7877175" y="6115050"/>
+          <a:off x="8086725" y="13354050"/>
           <a:ext cx="123824" cy="133349"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1334,27 +2374,947 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="14316075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="15268575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="15649575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="15840075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="16602075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="16983075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="17554575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="17935575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="18126075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="18888075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="19269075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="19840575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="20031075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="20412075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="20602575"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422076</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8067675" y="20793075"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419694</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8065293" y="23479125"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419694</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8065293" y="23669625"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419694</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8065293" y="24050625"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419694</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8065293" y="25003125"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419694</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8065293" y="24812625"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419694</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8065293" y="25193625"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419694</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8065293" y="25574625"/>
+          <a:ext cx="203001" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Multiplicar 20"/>
+        <xdr:cNvPr id="97" name="Multiplicar 96"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7877175" y="6305550"/>
+          <a:off x="8086725" y="13354050"/>
           <a:ext cx="123824" cy="133349"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -1412,1046 +3372,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Multiplicar 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7877175" y="6667500"/>
-          <a:ext cx="123824" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" cap="none" spc="0">
-            <a:ln w="18000">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:satMod val="140000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:noFill/>
-            <a:effectLst>
-              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                <a:srgbClr val="000000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Multiplicar 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7896225" y="7077075"/>
-          <a:ext cx="123824" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" cap="none" spc="0">
-            <a:ln w="18000">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:satMod val="140000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:noFill/>
-            <a:effectLst>
-              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                <a:srgbClr val="000000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>422076</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7858125" y="7286625"/>
-          <a:ext cx="203001" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>431601</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7867650" y="7648575"/>
-          <a:ext cx="203001" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Multiplicar 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7886700" y="8020050"/>
-          <a:ext cx="123824" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" cap="none" spc="0">
-            <a:ln w="18000">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:satMod val="140000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:noFill/>
-            <a:effectLst>
-              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                <a:srgbClr val="000000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Multiplicar 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7877175" y="8401050"/>
-          <a:ext cx="123824" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" cap="none" spc="0">
-            <a:ln w="18000">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:satMod val="140000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:noFill/>
-            <a:effectLst>
-              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                <a:srgbClr val="000000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Multiplicar 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7886700" y="8591550"/>
-          <a:ext cx="123824" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" cap="none" spc="0">
-            <a:ln w="18000">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:satMod val="140000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:noFill/>
-            <a:effectLst>
-              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                <a:srgbClr val="000000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>422076</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7858125" y="8791575"/>
-          <a:ext cx="203001" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Multiplicar 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7905750" y="9925050"/>
-          <a:ext cx="123824" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" cap="none" spc="0">
-            <a:ln w="18000">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:satMod val="140000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:noFill/>
-            <a:effectLst>
-              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                <a:srgbClr val="000000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>441126</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7877175" y="10125075"/>
-          <a:ext cx="203001" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Multiplicar 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7896225" y="10496550"/>
-          <a:ext cx="123824" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" cap="none" spc="0">
-            <a:ln w="18000">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:satMod val="140000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:noFill/>
-            <a:effectLst>
-              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                <a:srgbClr val="000000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>422076</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7858125" y="10696575"/>
-          <a:ext cx="203001" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Multiplicar 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7896225" y="10496550"/>
-          <a:ext cx="123824" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" cap="none" spc="0">
-            <a:ln w="18000">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:satMod val="140000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:noFill/>
-            <a:effectLst>
-              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                <a:srgbClr val="000000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Multiplicar 35"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7896225" y="10496550"/>
-          <a:ext cx="123824" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" cap="none" spc="0">
-            <a:ln w="18000">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:satMod val="140000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:noFill/>
-            <a:effectLst>
-              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                <a:srgbClr val="000000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Multiplicar 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7896225" y="10496550"/>
-          <a:ext cx="123824" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100" b="1" cap="none" spc="0">
-            <a:ln w="18000">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:satMod val="140000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:noFill/>
-            <a:effectLst>
-              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
-                <a:srgbClr val="000000">
-                  <a:alpha val="50000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>216693</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419694</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 1" descr="http://images4.wikia.nocookie.net/__cb20110925115918/ben10/pt/images/2/26/Certo.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5560218" y="1381125"/>
-          <a:ext cx="203001" cy="104775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2742,10 +3662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2769,27 +3689,27 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2809,7 +3729,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2829,7 +3749,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2839,47 +3759,43 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-    </row>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3"/>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2887,200 +3803,196 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="28" spans="1:3"/>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>22</v>
+      <c r="A36" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>23</v>
+      <c r="A37" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="3" t="s">
-        <v>30</v>
+      <c r="A48" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>31</v>
+      <c r="A49" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3"/>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>37</v>
+      <c r="A53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="3" t="s">
-        <v>40</v>
+      <c r="A59" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="5" t="s">
-        <v>41</v>
+      <c r="A60" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>44</v>
+      <c r="A61" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
-        <v>47</v>
+      <c r="A64" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>51</v>
+      <c r="A65" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3090,338 +4002,351 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="6" t="s">
-        <v>36</v>
+      <c r="A71" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="3" t="s">
-        <v>30</v>
+      <c r="A72" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>53</v>
+      <c r="A73" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="1:3"/>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3"/>
     <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>55</v>
+      <c r="A79" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="3" t="s">
-        <v>30</v>
+      <c r="A81" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="5" t="s">
-        <v>56</v>
+      <c r="A82" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3"/>
-    <row r="85" spans="1:3">
-      <c r="A85" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3"/>
     <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
-        <v>62</v>
+      <c r="A86" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="3" t="s">
-        <v>30</v>
+      <c r="A88" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3"/>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
+      <c r="A89" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3"/>
     <row r="92" spans="1:3">
-      <c r="A92" s="5" t="s">
-        <v>36</v>
+      <c r="A92" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="3" t="s">
-        <v>30</v>
+      <c r="A93" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="5" t="s">
-        <v>56</v>
+      <c r="A94" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3"/>
-    <row r="97" spans="1:3">
-      <c r="A97" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3"/>
     <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>66</v>
+      <c r="A98" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
-        <v>70</v>
+      <c r="A102" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>71</v>
+      <c r="A103" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="3" t="s">
-        <v>30</v>
+      <c r="A106" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>53</v>
+      <c r="A107" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3"/>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
+      <c r="A110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3"/>
     <row r="113" spans="1:3">
-      <c r="A113" s="5" t="s">
-        <v>83</v>
+      <c r="A113" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="5" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="9" t="s">
-        <v>42</v>
+      <c r="A128" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="5" t="s">
-        <v>93</v>
+      <c r="A129" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="5" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="5" t="s">
-        <v>98</v>
+      <c r="A136" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="5"/>
+      <c r="A137" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>93</v>
+      </c>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="1:3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/HardCoders/docs/teste/casos de teste.xlsx
+++ b/HardCoders/docs/teste/casos de teste.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12990" windowHeight="3705"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12225" windowHeight="3525"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -3665,7 +3665,7 @@
   <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/HardCoders/docs/teste/casos de teste.xlsx
+++ b/HardCoders/docs/teste/casos de teste.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12225" windowHeight="3525"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12990" windowHeight="3705"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>Passou</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>Não deverá permitir mais de um ponto no campo (ex: 1.000.00)</t>
+  </si>
+  <si>
+    <t>REALIZAR VENDA</t>
+  </si>
+  <si>
+    <t>Tirar a ação cancelar da tela de busca</t>
   </si>
 </sst>
 </file>
@@ -3662,10 +3668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4346,7 +4352,16 @@
       </c>
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="1:3"/>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
